--- a/Results2.xlsx
+++ b/Results2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C2219-0CEA-461F-9D41-B1591AA2C1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1978537C-9C64-491A-9DF8-A78028267D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{2132F57B-8824-4764-BC02-18EC8AEFAB7F}"/>
   </bookViews>
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACA3018-E49A-49B2-AB2D-E7B776AEAC6B}">
-  <dimension ref="A1:CI100"/>
+  <dimension ref="A1:CI99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CE1" sqref="CE1:CI1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27009,266 +27009,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-      <c r="S100">
-        <v>0</v>
-      </c>
-      <c r="T100">
-        <v>0</v>
-      </c>
-      <c r="U100">
-        <v>0</v>
-      </c>
-      <c r="V100">
-        <v>0</v>
-      </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-      <c r="X100">
-        <v>0</v>
-      </c>
-      <c r="Y100">
-        <v>0</v>
-      </c>
-      <c r="Z100">
-        <v>0</v>
-      </c>
-      <c r="AA100">
-        <v>0</v>
-      </c>
-      <c r="AB100">
-        <v>0</v>
-      </c>
-      <c r="AC100">
-        <v>0</v>
-      </c>
-      <c r="AD100">
-        <v>0</v>
-      </c>
-      <c r="AE100">
-        <v>0</v>
-      </c>
-      <c r="AF100">
-        <v>0</v>
-      </c>
-      <c r="AG100">
-        <v>0</v>
-      </c>
-      <c r="AH100">
-        <v>0</v>
-      </c>
-      <c r="AI100">
-        <v>0</v>
-      </c>
-      <c r="AJ100">
-        <v>0</v>
-      </c>
-      <c r="AK100">
-        <v>0</v>
-      </c>
-      <c r="AL100">
-        <v>0</v>
-      </c>
-      <c r="AM100">
-        <v>0</v>
-      </c>
-      <c r="AN100">
-        <v>0</v>
-      </c>
-      <c r="AO100">
-        <v>0</v>
-      </c>
-      <c r="AP100">
-        <v>0</v>
-      </c>
-      <c r="AQ100">
-        <v>0</v>
-      </c>
-      <c r="AR100">
-        <v>0</v>
-      </c>
-      <c r="AS100">
-        <v>0</v>
-      </c>
-      <c r="AT100">
-        <v>0</v>
-      </c>
-      <c r="AU100">
-        <v>0</v>
-      </c>
-      <c r="AV100">
-        <v>0</v>
-      </c>
-      <c r="AW100">
-        <v>0</v>
-      </c>
-      <c r="AX100">
-        <v>0</v>
-      </c>
-      <c r="AY100">
-        <v>0</v>
-      </c>
-      <c r="AZ100">
-        <v>0</v>
-      </c>
-      <c r="BA100">
-        <v>0</v>
-      </c>
-      <c r="BB100">
-        <v>0</v>
-      </c>
-      <c r="BC100">
-        <v>0</v>
-      </c>
-      <c r="BD100">
-        <v>0</v>
-      </c>
-      <c r="BE100">
-        <v>0</v>
-      </c>
-      <c r="BF100">
-        <v>0</v>
-      </c>
-      <c r="BG100">
-        <v>0</v>
-      </c>
-      <c r="BH100">
-        <v>0</v>
-      </c>
-      <c r="BI100">
-        <v>0</v>
-      </c>
-      <c r="BJ100">
-        <v>0</v>
-      </c>
-      <c r="BK100">
-        <v>0</v>
-      </c>
-      <c r="BL100">
-        <v>0</v>
-      </c>
-      <c r="BM100">
-        <v>0</v>
-      </c>
-      <c r="BN100">
-        <v>0</v>
-      </c>
-      <c r="BO100">
-        <v>0</v>
-      </c>
-      <c r="BP100">
-        <v>0</v>
-      </c>
-      <c r="BQ100">
-        <v>0</v>
-      </c>
-      <c r="BR100">
-        <v>0</v>
-      </c>
-      <c r="BS100">
-        <v>0</v>
-      </c>
-      <c r="BT100">
-        <v>0</v>
-      </c>
-      <c r="BU100">
-        <v>0</v>
-      </c>
-      <c r="BV100">
-        <v>0</v>
-      </c>
-      <c r="BW100">
-        <v>0</v>
-      </c>
-      <c r="BX100">
-        <v>0</v>
-      </c>
-      <c r="BY100">
-        <v>0</v>
-      </c>
-      <c r="BZ100">
-        <v>0</v>
-      </c>
-      <c r="CA100">
-        <v>0</v>
-      </c>
-      <c r="CB100">
-        <v>0</v>
-      </c>
-      <c r="CC100">
-        <v>0</v>
-      </c>
-      <c r="CD100">
-        <v>0</v>
-      </c>
-      <c r="CE100">
-        <v>0</v>
-      </c>
-      <c r="CF100">
-        <v>0</v>
-      </c>
-      <c r="CG100">
-        <v>0</v>
-      </c>
-      <c r="CH100">
-        <v>0</v>
-      </c>
-      <c r="CI100">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results2.xlsx
+++ b/Results2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43253CC2-82B5-4188-B43B-815A8FD565CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197E7A16-6389-4784-8761-59C5BE60F107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{8B40F6D1-9A99-4C4C-A584-B5A2D365FA79}"/>
   </bookViews>
   <sheets>
-    <sheet name="Results2" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -618,7 +618,7 @@
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -636,16 +636,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -27040,10 +27030,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:CI99">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Results2.xlsx
+++ b/Results2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5AC91A-D449-4CFC-AC15-8036238AFC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5941A236-8D7A-4856-8A02-F4105891E8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{8B40F6D1-9A99-4C4C-A584-B5A2D365FA79}"/>
+    <workbookView xWindow="-21210" yWindow="2760" windowWidth="18900" windowHeight="10965" xr2:uid="{8B40F6D1-9A99-4C4C-A584-B5A2D365FA79}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -952,7 +952,7 @@
   <dimension ref="A1:CI99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,6 +1263,9 @@
       <c r="A3" t="s">
         <v>110</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/Results2.xlsx
+++ b/Results2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5941A236-8D7A-4856-8A02-F4105891E8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0D2485-A706-491A-98AD-E291086C981D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21210" yWindow="2760" windowWidth="18900" windowHeight="10965" xr2:uid="{8B40F6D1-9A99-4C4C-A584-B5A2D365FA79}"/>
   </bookViews>
@@ -1263,9 +1263,6 @@
       <c r="A3" t="s">
         <v>110</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/Results2.xlsx
+++ b/Results2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0D2485-A706-491A-98AD-E291086C981D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19118511-D1C9-4BF3-A491-A668131B6C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21210" yWindow="2760" windowWidth="18900" windowHeight="10965" xr2:uid="{8B40F6D1-9A99-4C4C-A584-B5A2D365FA79}"/>
+    <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{8B40F6D1-9A99-4C4C-A584-B5A2D365FA79}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -952,7 +952,7 @@
   <dimension ref="A1:CI99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,6 +1258,9 @@
       <c r="A2" t="s">
         <v>88</v>
       </c>
+      <c r="B2">
+        <v>3000</v>
+      </c>
     </row>
     <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1323,88 +1326,94 @@
       <c r="A15" t="s">
         <v>97</v>
       </c>
+      <c r="B15">
+        <v>2500</v>
+      </c>
     </row>
     <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>129</v>
       </c>

--- a/Results2.xlsx
+++ b/Results2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19118511-D1C9-4BF3-A491-A668131B6C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FA06C7-72E1-4E4A-9E0A-80F842115D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{8B40F6D1-9A99-4C4C-A584-B5A2D365FA79}"/>
   </bookViews>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDB95A4-EF6D-4065-93BE-B1482570B508}">
   <dimension ref="A1:CI99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,9 +1258,6 @@
       <c r="A2" t="s">
         <v>88</v>
       </c>
-      <c r="B2">
-        <v>3000</v>
-      </c>
     </row>
     <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1326,94 +1323,88 @@
       <c r="A15" t="s">
         <v>97</v>
       </c>
-      <c r="B15">
-        <v>2500</v>
-      </c>
     </row>
     <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
-      <c r="B29">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>129</v>
       </c>

--- a/Results2.xlsx
+++ b/Results2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raouf\Desktop\Clan_Chest\Chest_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1935564-535C-44D1-B428-0817587EB9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476E6B75-D944-4E94-9D37-A35220484FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-2430" windowWidth="25440" windowHeight="15270" xr2:uid="{2132F57B-8824-4764-BC02-18EC8AEFAB7F}"/>
   </bookViews>
@@ -25,7 +25,230 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>total Chests</t>
+  </si>
+  <si>
+    <t>Rise of the Ancients Event</t>
+  </si>
+  <si>
+    <t>Epic Ancient Squad</t>
+  </si>
+  <si>
+    <t>Ancient's Treasure</t>
+  </si>
+  <si>
+    <t>Level 5 Crypt</t>
+  </si>
+  <si>
+    <t>Level 10 Crypt</t>
+  </si>
+  <si>
+    <t>Level 15 Crypt</t>
+  </si>
+  <si>
+    <t>Level 20 Crypt</t>
+  </si>
+  <si>
+    <t>Level 25 Crypt</t>
+  </si>
+  <si>
+    <t>Level 10 Rare Crypt</t>
+  </si>
+  <si>
+    <t>Level 15 Rare Crypt</t>
+  </si>
+  <si>
+    <t>Level 20 Rare Crypt</t>
+  </si>
+  <si>
+    <t>Level 25 Rare Crypt</t>
+  </si>
+  <si>
+    <t>Level 30 Rare Crypt</t>
+  </si>
+  <si>
+    <t>Level 15 Epic Crypt</t>
+  </si>
+  <si>
+    <t>Level 20 Epic Crypt</t>
+  </si>
+  <si>
+    <t>Level 25 Epic Crypt</t>
+  </si>
+  <si>
+    <t>Level 30 Epic Crypt</t>
+  </si>
+  <si>
+    <t>Level 35 Epic Crypt</t>
+  </si>
+  <si>
+    <t>Level 10 Citadel</t>
+  </si>
+  <si>
+    <t>Level 15 Citadel</t>
+  </si>
+  <si>
+    <t>Level 20 Citadel</t>
+  </si>
+  <si>
+    <t>Level 25 Citadel</t>
+  </si>
+  <si>
+    <t>Level 30 Citadel</t>
+  </si>
+  <si>
+    <t>Level 20 Cursed Citadel</t>
+  </si>
+  <si>
+    <t>Level 25 Cursed Citadel</t>
+  </si>
+  <si>
+    <t>Epic Fenrir Squad</t>
+  </si>
+  <si>
+    <t>Clash for the Throne</t>
+  </si>
+  <si>
+    <t>Mercenary Exchange</t>
+  </si>
+  <si>
+    <t>Tartaros Crypt Level 10</t>
+  </si>
+  <si>
+    <t>Tartaros Crypt Level 15</t>
+  </si>
+  <si>
+    <t>Tartaros Crypt Level 20</t>
+  </si>
+  <si>
+    <t>Tartaros Crypt Level 25</t>
+  </si>
+  <si>
+    <t>Tartaros Crypt Level 30</t>
+  </si>
+  <si>
+    <t>Tartaros Crypt Level 35</t>
+  </si>
+  <si>
+    <t>Epic Inferno Squad</t>
+  </si>
+  <si>
+    <t>Union of Triumph Personal Reward</t>
+  </si>
+  <si>
+    <t>jormungandr Shop</t>
+  </si>
+  <si>
+    <t>Hermes Store</t>
+  </si>
+  <si>
+    <t>Level 16 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 17 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 18 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 19 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 20 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 21 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 22 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 23 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 24 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 25 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 26 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 27 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 28 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 29 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 30 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 31 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 32 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 33 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 34 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 35 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 36 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 37 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 38 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 39 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 40 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 41 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 42 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 43 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 44 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Level 45 Heroic Monster</t>
+  </si>
+  <si>
+    <t>Arena</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Spoils of Dread Event</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACA3018-E49A-49B2-AB2D-E7B776AEAC6B}">
-  <dimension ref="C1:AF1"/>
+  <dimension ref="A1:BW1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +647,235 @@
     <col min="73" max="73" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BV101">
     <sortCondition descending="1" ref="B2:B101"/>
   </sortState>
